--- a/res.xlsx
+++ b/res.xlsx
@@ -14,24 +14,256 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Langue de truchmuche</t>
   </si>
   <si>
-    <t>23999</t>
-  </si>
-  <si>
-    <t>étoffe de yokai firefoux</t>
-  </si>
-  <si>
-    <t>2985</t>
+    <t>26999</t>
+  </si>
+  <si>
+    <t>Ã©toffe de yokai firefoux</t>
   </si>
   <si>
     <t>Lamelle de champa vert</t>
   </si>
   <si>
     <t>1429</t>
+  </si>
+  <si>
+    <t>Protection de la dragueuse</t>
+  </si>
+  <si>
+    <t>1483</t>
+  </si>
+  <si>
+    <t>Cuir de porsalu</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Langue de craquelope</t>
+  </si>
+  <si>
+    <t>31999</t>
+  </si>
+  <si>
+    <t>Grelot</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>Foulard du sparo</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>Broderie de mallÃ©fisk</t>
+  </si>
+  <si>
+    <t>Cheveux d'AlhyÃ¨ne</t>
+  </si>
+  <si>
+    <t>Queue du boufmouth lÃ©gendaire</t>
+  </si>
+  <si>
+    <t>Antennes de vilinsekt</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>arakne majeure</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>Laine du boufcoul</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Chicot du flib</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>Bec de truchon</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>Ã©toffe de vigie pirate</t>
+  </si>
+  <si>
+    <t>pourri</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Ã©toffe de dok alako</t>
+  </si>
+  <si>
+    <t>Duvet de truchon</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>Ã©toffe de kaniglou</t>
+  </si>
+  <si>
+    <t>Croupion de truchmuche</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Ã©toffe zoth</t>
+  </si>
+  <si>
+    <t>Coco du bitouf des plaines</t>
+  </si>
+  <si>
+    <t>19996</t>
+  </si>
+  <si>
+    <t>Lamelle de champa rouge</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Carapace de scaratos</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>Os de fantÃ´me Maho firefoux</t>
+  </si>
+  <si>
+    <t>cuir du sanglacier</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>peau de pandule</t>
+  </si>
+  <si>
+    <t>3199</t>
+  </si>
+  <si>
+    <t>Bec du kwak de glace</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>couteau de roukouto</t>
+  </si>
+  <si>
+    <t>I
+999</t>
+  </si>
+  <si>
+    <t>Plume du timansot</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Sang d'oni</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Boulon wabbit</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Queue de rat d'hyoactif</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>PaupiÃ¨re d'Ã©toile</t>
+  </si>
+  <si>
+    <t>morpion de truchideur</t>
+  </si>
+  <si>
+    <t>13999</t>
+  </si>
+  <si>
+    <t>coquille de harpirate</t>
+  </si>
+  <si>
+    <t>2599</t>
+  </si>
+  <si>
+    <t>toile d'abrakne sombre</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>Aile de dragoeuf volant</t>
+  </si>
+  <si>
+    <t>6490</t>
+  </si>
+  <si>
+    <t>lamelle de champa marron</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>dent de wabbit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Plume de truchideur</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>coco du bitouf sombre</t>
+  </si>
+  <si>
+    <t>3599</t>
+  </si>
+  <si>
+    <t>arakne Ã©crabouillÃ©e</t>
+  </si>
+  <si>
+    <t>lamelle de champa bleu</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Moustaches de tiwabbit</t>
+  </si>
+  <si>
+    <t>180</t>
   </si>
 </sst>
 </file>
@@ -133,7 +365,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="étoffe_de_yokai_firefoux.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Ã©toffe_de_yokai_firefoux.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -185,6 +417,1678 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1047750" y="3162300"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Protection_de_la_dragueuse.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="4743450"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Cuir_de_porsalu.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="6324600"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Langue_de_craquelope.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="7905750"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Grelot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="9486900"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Foulard_du_sparo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="11068050"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Broderie_de_mallÃ©fisk.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="12649200"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Cheveux_d'AlhyÃ¨ne.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="14230350"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Queue_du_boufmouth_lÃ©gendaire.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="15811500"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Antennes_de_vilinsekt.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="17392650"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="arakne_majeure.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="18973800"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Laine_du_boufcoul.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="20554950"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Chicot_du_flib.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="22136100"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Bec_de_truchon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="23717250"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="Ã©toffe_de_vigie_pirate.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="25298400"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="pourri.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="26879550"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Ã©toffe_de_dok_alako.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="28460700"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="Duvet_de_truchon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="30041850"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="Ã©toffe_de_kaniglou.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="31623000"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="Croupion_de_truchmuche.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="33204150"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="Ã©toffe_zoth.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="34785300"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Coco_du_bitouf_des_plaines.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="36366450"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Lamelle_de_champa_rouge.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="37947600"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="Carapace_de_scaratos.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="39528750"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Os_de_fantÃ´me_Maho_firefoux.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="41109900"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="cuir_du_sanglacier.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="42691050"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="peau_de_pandule.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="44272200"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="Bec_du_kwak_de_glace.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="45853350"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="couteau_de_roukouto.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="47434500"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Plume_du_timansot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="49015650"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="Sang_d'oni.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="50596800"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="Boulon_wabbit.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="52177950"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Queue_de_rat_d'hyoactif.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="53759100"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="PaupiÃ¨re_d'Ã©toile.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="55340250"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="morpion_de_truchideur.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="56921400"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="coquille_de_harpirate.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="58502550"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="toile_d'abrakne_sombre.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="60083700"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="Aile_de_dragoeuf_volant.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="61664850"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="lamelle_de_champa_marron.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="63246000"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="dent_de_wabbit.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="64827150"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="Plume_de_truchideur.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="66408300"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="coco_du_bitouf_sombre.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="67989450"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="arakne_Ã©crabouillÃ©e.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="69570600"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="lamelle_de_champa_bleu.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="71151750"/>
+          <a:ext cx="4876800" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="Moustaches_de_tiwabbit.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="72732900"/>
           <a:ext cx="4876800" cy="1390650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -482,7 +2386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,17 +2415,457 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="110" customHeight="1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="110" customHeight="1">
+      <c r="A7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="110" customHeight="1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="110" customHeight="1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="110" customHeight="1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="110" customHeight="1">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="110" customHeight="1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="110" customHeight="1">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="110" customHeight="1">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="110" customHeight="1">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="110" customHeight="1">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="110" customHeight="1">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="110" customHeight="1">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="110" customHeight="1">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="110" customHeight="1">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="110" customHeight="1">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="110" customHeight="1">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="110" customHeight="1">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="110" customHeight="1">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="110" customHeight="1">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="110" customHeight="1">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="110" customHeight="1">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="110" customHeight="1">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="110" customHeight="1">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="110" customHeight="1">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="110" customHeight="1">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="110" customHeight="1">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="110" customHeight="1">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="110" customHeight="1">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="110" customHeight="1">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="110" customHeight="1">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="110" customHeight="1">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="110" customHeight="1">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="110" customHeight="1">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="110" customHeight="1">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="110" customHeight="1">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="110" customHeight="1">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="110" customHeight="1">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="110" customHeight="1">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="110" customHeight="1">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="110" customHeight="1">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="110" customHeight="1">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="110" customHeight="1">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="110" customHeight="1">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="110" customHeight="1">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
